--- a/Results/kfold-training-testing-split-results.xlsx
+++ b/Results/kfold-training-testing-split-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A790E111-8017-A745-B5FB-AB3AC2E462DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A694A0-D50E-3B43-ACDB-FEFFE026F74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D7CE87F8-77C2-F944-904B-08A0D09A1FAF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>1st Fold Accuracy</t>
   </si>
@@ -58,101 +58,6 @@
   </si>
   <si>
     <t>Note:</t>
-  </si>
-  <si>
-    <t>Underscored parameters are those being tuned by a Grid Search. Each of the candidates are trained and we select the one that generates the best accuracy.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Multi-layer Perceptron
-    Photons Histogramizer: 6 buckets, filter late-arrival photons
-    MLP: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 hidden layers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>8-40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> neurons per layer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Multi-layer Perceptron
-    Photons Histogramizer: 6 buckets, filter late-arrival photons
-    MLP: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 hidden layers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">8-40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>neurons per layer</t>
-    </r>
   </si>
   <si>
     <r>
@@ -198,7 +103,215 @@
     <t>5 histogram buckets</t>
   </si>
   <si>
-    <t>Threshold value for "late-arrival phtoons": have performed grid search on Max's previous empirical value and Aaron's value shown by the histogram of all phtons' arrival times. Performance difference is insignificant.</t>
+    <t>15 neurons per layer</t>
+  </si>
+  <si>
+    <t>39 neurons per layer</t>
+  </si>
+  <si>
+    <t>10 neurons per layer</t>
+  </si>
+  <si>
+    <t>24 neurons per layer</t>
+  </si>
+  <si>
+    <t>36 neurons per layer</t>
+  </si>
+  <si>
+    <t>28 neurons per layer</t>
+  </si>
+  <si>
+    <t>22 neurons per layer</t>
+  </si>
+  <si>
+    <t>31 neurons per layer</t>
+  </si>
+  <si>
+    <t>29 neurons per layer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multi-layer Perceptron
+    Photons Histogramizer: 6 buckets, filter late-arrival photons </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(BEST, POST_THRESHOLD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    MLP: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 hidden layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">8-40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>neurons per layer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multi-layer Perceptron
+    Photons Histogramizer: 6 buckets, filter late-arrival photons </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(BEST, POST_THRESHOLD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    MLP: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 hidden layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>8-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> neurons per layer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multi-layer Perceptron
+    Photons Histogramizer: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1-32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> buckets, filter late-arrival photons (POST_THRESHOLD)
+    MLP: 2 hidden layers, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>8-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> neurons per layer</t>
+    </r>
+  </si>
+  <si>
+    <t>(Still running)</t>
+  </si>
+  <si>
+    <t>Threshold value for "late-arrival phtoons": have performed grid search on Max's previous empirical value (BEST) and Aaron's value (POST) shown by the histogram of all phtons' arrival times. Performance difference is insignificant.</t>
+  </si>
+  <si>
+    <t>Underscored parameters are those being tuned by a Grid Search. Each of the candidates is trained and we select the one that generates the best accuracy.</t>
   </si>
 </sst>
 </file>
@@ -586,24 +699,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31911894-FECC-5943-B840-F1C4CE52A234}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="73.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -632,149 +745,187 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="66" customHeight="1">
+    <row r="3" spans="1:12" ht="102">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>0.99978043834837904</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>0.99965128443566198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
         <v>0.99970294600074905</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2">
         <v>0.99957378658331797</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
         <v>0.99975460439645603</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2">
         <v>0.99969261195291304</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="51">
+    <row r="4" spans="1:12" ht="68">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>0.99978043834837904</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2">
         <v>0.999664199826933</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="2">
         <v>0.99970294600074905</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="2">
         <v>0.99962544881564297</v>
       </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="2">
         <v>0.99978043551261797</v>
       </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
       <c r="L4" s="2">
         <v>0.99971069370086396</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="51">
+    <row r="5" spans="1:12" ht="68">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
         <v>0.99978043834837904</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2">
         <v>0.999664199826933</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="2">
         <v>0.99970294600074905</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="2">
         <v>0.99961253325756205</v>
       </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="2">
         <v>0.99976751995453705</v>
       </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="2">
         <v>0.99970552747763197</v>
       </c>
     </row>
+    <row r="6" spans="1:12" ht="68">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.99970811064931098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.99970811064931098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Results/kfold-training-testing-split-results.xlsx
+++ b/Results/kfold-training-testing-split-results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/CS-Projects/Qubit-Capstone/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A694A0-D50E-3B43-ACDB-FEFFE026F74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00803F4-2DA3-EF46-B872-916DA2796C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D7CE87F8-77C2-F944-904B-08A0D09A1FAF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>1st Fold Accuracy</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>Underscored parameters are those being tuned by a Grid Search. Each of the candidates is trained and we select the one that generates the best accuracy.</t>
+  </si>
+  <si>
+    <t>{'clf__hidden_layer_sizes': (15, 15), 'hstgm__num_buckets': 4}</t>
+  </si>
+  <si>
+    <t>{'clf__hidden_layer_sizes': (13, 13), 'hstgm__num_buckets': 15}</t>
+  </si>
+  <si>
+    <t>{'clf__hidden_layer_sizes': (19, 19), 'hstgm__num_buckets': 6}</t>
+  </si>
+  <si>
+    <t>{'clf__hidden_layer_sizes': (20, 20), 'hstgm__num_buckets': 2}</t>
   </si>
 </sst>
 </file>
@@ -319,7 +331,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -375,15 +387,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31911894-FECC-5943-B840-F1C4CE52A234}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -896,9 +914,34 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>0.99971586139201996</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99965128443566198</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99971586139201996</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>0.999638364373724</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -936,7 +979,8 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Results/kfold-training-testing-split-results.xlsx
+++ b/Results/kfold-training-testing-split-results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/CS-Projects/Qubit-Capstone/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00803F4-2DA3-EF46-B872-916DA2796C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA89E96-997D-DC4E-A6DD-8455513F36F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D7CE87F8-77C2-F944-904B-08A0D09A1FAF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{D7CE87F8-77C2-F944-904B-08A0D09A1FAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Separate Testing Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Cross Validation Method" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>1st Fold Accuracy</t>
   </si>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>{'clf__hidden_layer_sizes': (20, 20), 'hstgm__num_buckets': 2}</t>
+  </si>
+  <si>
+    <t>Model and Parameters</t>
+  </si>
+  <si>
+    <t>5-fold Cross Validation with averaged Accuracy, with New Data Split</t>
+  </si>
+  <si>
+    <t>MLPClassifier:
+  Layers (8-40, 8-40), 6 bins</t>
+  </si>
+  <si>
+    <t>Best Parameter</t>
+  </si>
+  <si>
+    <t>Layers (33, 33)</t>
   </si>
 </sst>
 </file>
@@ -394,11 +410,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -740,26 +756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
@@ -917,19 +933,19 @@
       <c r="B6" s="2">
         <v>0.99971586139201996</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>0.99965128443566198</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>0.99971586139201996</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H6">
@@ -986,12 +1002,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3979B56-16DF-2248-8563-45AECE0FAE48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99971585985737299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/kfold-training-testing-split-results.xlsx
+++ b/Results/kfold-training-testing-split-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/CS-Projects/Qubit-Capstone/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA89E96-997D-DC4E-A6DD-8455513F36F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA8006-A661-A24C-8931-9294BF1B6AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{D7CE87F8-77C2-F944-904B-08A0D09A1FAF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>1st Fold Accuracy</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>Layers (33, 33)</t>
+  </si>
+  <si>
+    <t>Majority Vote: 
+    mv_pipeline = Pipeline([
+        ('hstgm', Histogramize(
+            arrival_time_threshold=(PRE_ARRIVAL_TIME_THRESHOLD, POST_ARRIVAL_TIME_THRESHOLD))),
+        ('clf', VotingClassifier([
+            ('mlp', 
+                MLPClassifier(activation='relu', solver='adam', hidden_layer_sizes=(32, 32), random_state=RANDOM_SEED)),
+            ('tc', 
+                ThresholdCutoffClassifier(threshold=BEST_PHOTON_COUNT_THRESHOLD)),
+            ('lg', 
+                LogisticRegression(solver='liblinear', penalty='l2', C=10**-3, random_state=RANDOM_SEED)),
+            ('rf', 
+                RandomForestClassifier(random_state=RANDOM_SEED))
+        ]))
+    ])
+    mv_param_grid = {
+        'hstgm__num_buckets': range(5, 10),
+        'clf__mlp__hidden_layer_sizes': [(neurons,) * 2 for neurons in range(20, 41)],
+    }</t>
+  </si>
+  <si>
+    <t>(26, 26), 7</t>
   </si>
 </sst>
 </file>
@@ -1005,12 +1029,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="100" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
@@ -1037,6 +1061,17 @@
         <v>0.99971585985737299</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="356">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99971840000000001</v>
+      </c>
+    </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
